--- a/uploads/bulk_skeletons/vendor_product_example.xlsx
+++ b/uploads/bulk_skeletons/vendor_product_example.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>title</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>for,good</t>
-  </si>
-  <si>
-    <t>http://digitcodes.com/wp-content/uploads/2013/02/image-placeholder.png,http://sifatit.com/wp-content/uploads/2012/07/dummy.jpg</t>
   </si>
   <si>
     <t>unit</t>
@@ -139,8 +136,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -156,9 +153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,9 +193,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,18 +498,18 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -545,15 +542,15 @@
         <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -576,23 +573,18 @@
       <c r="I3" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>